--- a/03-tutorial/ddd-basic/README.xlsx
+++ b/03-tutorial/ddd-basic/README.xlsx
@@ -1,18 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2025년\Dev\DDD-Course\2025-02-18_ddd-basic\03-tutorial\ddd-basic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Github\beyondcode\03-tutorial\ddd-basic\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6090BC9C-72A9-4B4B-97AE-0DF84003BD00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10425" windowHeight="4515"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="서비스" sheetId="2" r:id="rId2"/>
+    <sheet name="통합" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="104">
   <si>
     <t>Admin</t>
   </si>
@@ -195,35 +198,218 @@
   <si>
     <t>CreateT</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GymManagement</t>
+  </si>
+  <si>
+    <t>Admins</t>
+  </si>
+  <si>
+    <t>IntegrationEvents</t>
+  </si>
+  <si>
+    <t>Gyms</t>
+  </si>
+  <si>
+    <t>Commands</t>
+  </si>
+  <si>
+    <t>AddTrainer</t>
+  </si>
+  <si>
+    <t>CreateGym</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>Queries</t>
+  </si>
+  <si>
+    <t>GetGym</t>
+  </si>
+  <si>
+    <t>ListGyms</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>CreateRoom</t>
+  </si>
+  <si>
+    <t>DeleteRoom</t>
+  </si>
+  <si>
+    <t>Subscriptions</t>
+  </si>
+  <si>
+    <t>CreateSubscription</t>
+  </si>
+  <si>
+    <t>ListSubscriptions</t>
+  </si>
+  <si>
+    <t>SessionReservation</t>
+  </si>
+  <si>
+    <t>ListSessions</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>CancelReservation</t>
+  </si>
+  <si>
+    <t>ListParticipantSessions</t>
+  </si>
+  <si>
+    <t>Reservations</t>
+  </si>
+  <si>
+    <t>CreateReservation</t>
+  </si>
+  <si>
+    <t>GetRoom</t>
+  </si>
+  <si>
+    <t>ListRooms</t>
+  </si>
+  <si>
+    <t>Sessions</t>
+  </si>
+  <si>
+    <t>CreateSession</t>
+  </si>
+  <si>
+    <t>GetSession</t>
+  </si>
+  <si>
+    <t>Trainers</t>
+  </si>
+  <si>
+    <t>UserManagement</t>
+  </si>
+  <si>
+    <t>Authentication</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Profiles</t>
+  </si>
+  <si>
+    <t>CreateAdminProfile</t>
+  </si>
+  <si>
+    <t>CreateParticipantProfile</t>
+  </si>
+  <si>
+    <t>CreateTrainerProfile</t>
+  </si>
+  <si>
+    <t>ListProfiles</t>
+  </si>
+  <si>
+    <t>AdminProfileCreatedEvent</t>
+  </si>
+  <si>
+    <t>GymAddedEvent</t>
+  </si>
+  <si>
+    <t>SessionScheduledEvent</t>
+  </si>
+  <si>
+    <t>SubscriptionSetEvent</t>
+  </si>
+  <si>
+    <t>ReservationCanceledEvent</t>
+  </si>
+  <si>
+    <t>SessionCanceledEvent</t>
+  </si>
+  <si>
+    <t>SessionSpotReservedEvent</t>
+  </si>
+  <si>
+    <t>ParticipantProfileCreatedEvent</t>
+  </si>
+  <si>
+    <t>RoomAddedEvent</t>
+  </si>
+  <si>
+    <t>RoomRemovedEvent</t>
+  </si>
+  <si>
+    <t>SessionCancledEvent</t>
+  </si>
+  <si>
+    <t>TrainerCreatedEvent</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Usecase</t>
+  </si>
+  <si>
+    <t>AggregateRoot</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,8 +426,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -523,20 +712,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="19" max="19" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:43">
       <c r="F4" t="s">
         <v>12</v>
       </c>
@@ -562,7 +751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:43">
       <c r="F5" t="s">
         <v>18</v>
       </c>
@@ -636,7 +825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:43">
       <c r="E6" t="s">
         <v>1</v>
       </c>
@@ -668,7 +857,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:43">
       <c r="D7" t="s">
         <v>3</v>
       </c>
@@ -742,7 +931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:43">
       <c r="E8" t="s">
         <v>5</v>
       </c>
@@ -792,7 +981,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:43">
       <c r="E9" t="s">
         <v>4</v>
       </c>
@@ -836,7 +1025,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:43">
       <c r="E10" t="s">
         <v>6</v>
       </c>
@@ -865,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:43">
       <c r="E11" t="s">
         <v>7</v>
       </c>
@@ -891,7 +1080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:43">
       <c r="E12" t="s">
         <v>21</v>
       </c>
@@ -923,7 +1112,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:43">
       <c r="D13" t="s">
         <v>8</v>
       </c>
@@ -949,7 +1138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:43">
       <c r="E14" t="s">
         <v>5</v>
       </c>
@@ -957,7 +1146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:43">
       <c r="E15" t="s">
         <v>4</v>
       </c>
@@ -971,7 +1160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="4:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:43">
       <c r="E16" t="s">
         <v>6</v>
       </c>
@@ -979,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:30">
       <c r="E17" t="s">
         <v>7</v>
       </c>
@@ -987,7 +1176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:30">
       <c r="E18" t="s">
         <v>21</v>
       </c>
@@ -995,12 +1184,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:30">
       <c r="AD19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="5:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:30">
       <c r="AD20" t="s">
         <v>21</v>
       </c>
@@ -1010,4 +1199,1453 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95FDBDE-EE86-4676-8FC6-BD924F701FCB}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD03B638-D0A9-44A2-B199-7AFD88C06425}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="12.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>